--- a/LuBan/Datas/Server/S_StartProcess.xlsx
+++ b/LuBan/Datas/Server/S_StartProcess.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
@@ -24,15 +24,15 @@
     <t>Id</t>
   </si>
   <si>
-    <t>MachineId</t>
-  </si>
-  <si>
     <t>InnerPort</t>
   </si>
   <si>
     <t>AppName</t>
   </si>
   <si>
+    <t>StartMachineConfig</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -42,6 +42,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int#ref=StartMachineTable</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -51,13 +54,13 @@
     <t>##</t>
   </si>
   <si>
-    <t>所属机器</t>
-  </si>
-  <si>
     <t>内网端口</t>
   </si>
   <si>
     <t>程序名</t>
+  </si>
+  <si>
+    <t>关联的启动机器表</t>
   </si>
   <si>
     <t>Server</t>
@@ -1074,16 +1077,16 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.4545454545455" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.45454545454545" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.2727272727273" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.2727272727273" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.2727272727273" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.3636363636364" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.8181818181818" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1115,41 +1118,41 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1157,13 +1160,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
+        <v>20001</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20001</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1171,13 +1174,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="2">
+        <v>20002</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20002</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
